--- a/doc/포인터 추출.xlsx
+++ b/doc/포인터 추출.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\fe4-kr\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\fe4-kr\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247B5C31-7292-4807-822C-0F97327A656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685105CB-355B-4305-AF07-486D31F35615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2C517FE6-139D-412D-B728-E2064B619C94}"/>
+    <workbookView xWindow="17430" yWindow="2400" windowWidth="20625" windowHeight="16320" activeTab="1" xr2:uid="{2C517FE6-139D-412D-B728-E2064B619C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9966" uniqueCount="4331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="4450">
   <si>
     <t>Baldo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13068,6 +13069,366 @@
   </si>
   <si>
     <t>; write_hirom_pointer_org</t>
+  </si>
+  <si>
+    <t>0016fd6f</t>
+  </si>
+  <si>
+    <t>0016fd84</t>
+  </si>
+  <si>
+    <t>0018ffc9</t>
+  </si>
+  <si>
+    <t>0018ffee</t>
+  </si>
+  <si>
+    <t>0016ff3e</t>
+  </si>
+  <si>
+    <t>0016ff5d</t>
+  </si>
+  <si>
+    <t>0016ff7a</t>
+  </si>
+  <si>
+    <t>0016ffa6</t>
+  </si>
+  <si>
+    <t>0016fda0</t>
+  </si>
+  <si>
+    <t>0016fdcc</t>
+  </si>
+  <si>
+    <t>0016fde2</t>
+  </si>
+  <si>
+    <t>0016fe02</t>
+  </si>
+  <si>
+    <t>0016ffe0</t>
+  </si>
+  <si>
+    <t>000d8468</t>
+  </si>
+  <si>
+    <t>0016fe35</t>
+  </si>
+  <si>
+    <t>0016fe68</t>
+  </si>
+  <si>
+    <t>0016fe9c</t>
+  </si>
+  <si>
+    <t>0016fec1</t>
+  </si>
+  <si>
+    <t>000d8487</t>
+  </si>
+  <si>
+    <t>0016fef4</t>
+  </si>
+  <si>
+    <t>0016ff29</t>
+  </si>
+  <si>
+    <t>000d85f4</t>
+  </si>
+  <si>
+    <t>000d860d</t>
+  </si>
+  <si>
+    <t>000d8556</t>
+  </si>
+  <si>
+    <t>000d8575</t>
+  </si>
+  <si>
+    <t>000d8597</t>
+  </si>
+  <si>
+    <t>000fdfff</t>
+  </si>
+  <si>
+    <t>000d84a0</t>
+  </si>
+  <si>
+    <t>000d85b7</t>
+  </si>
+  <si>
+    <t>000d84c1</t>
+  </si>
+  <si>
+    <t>000d84ec</t>
+  </si>
+  <si>
+    <t>000d85d1</t>
+  </si>
+  <si>
+    <t>000d8508</t>
+  </si>
+  <si>
+    <t>000d8524</t>
+  </si>
+  <si>
+    <t>000d853e</t>
+  </si>
+  <si>
+    <t>001dcb04</t>
+  </si>
+  <si>
+    <t>001dcb0f</t>
+  </si>
+  <si>
+    <t>001dcb1f</t>
+  </si>
+  <si>
+    <t>001dcb39</t>
+  </si>
+  <si>
+    <t>0031e8ef</t>
+  </si>
+  <si>
+    <t>0031e8f5</t>
+  </si>
+  <si>
+    <t>0032fa8d</t>
+  </si>
+  <si>
+    <t>0032fce0</t>
+  </si>
+  <si>
+    <t>0032fb06</t>
+  </si>
+  <si>
+    <t>0032fd85</t>
+  </si>
+  <si>
+    <t>0032fb7a</t>
+  </si>
+  <si>
+    <t>0032fe52</t>
+  </si>
+  <si>
+    <t>0032fbf3</t>
+  </si>
+  <si>
+    <t>0032fc69</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  12: </t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>8ee34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  20: </t>
+  </si>
+  <si>
+    <t>8ee51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  28: </t>
+  </si>
+  <si>
+    <t>8ee6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  36: </t>
+  </si>
+  <si>
+    <t>8ee8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  44: </t>
+  </si>
+  <si>
+    <t>8eea4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  52: </t>
+  </si>
+  <si>
+    <t>8eec0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  60: </t>
+  </si>
+  <si>
+    <t>8eeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  68: </t>
+  </si>
+  <si>
+    <t>8eef7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  76: </t>
+  </si>
+  <si>
+    <t>8ef16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  84: </t>
+  </si>
+  <si>
+    <t>8ef32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄  92: </t>
+  </si>
+  <si>
+    <t>8ef4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 100: </t>
+  </si>
+  <si>
+    <t>8ef68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 108: </t>
+  </si>
+  <si>
+    <t>8ef7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 116: </t>
+  </si>
+  <si>
+    <t>8ef92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 124: </t>
+  </si>
+  <si>
+    <t>8efad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 132: </t>
+  </si>
+  <si>
+    <t>8efcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 140: </t>
+  </si>
+  <si>
+    <t>8efe9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 148: </t>
+  </si>
+  <si>
+    <t>8f003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 156: </t>
+  </si>
+  <si>
+    <t>8f01f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 164: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 172: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 180: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 188: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 196: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 204: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 212: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 220: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 228: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 236: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 244: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 252: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 260: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 268: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 276: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 284: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 292: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 300: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 308: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 15: </t>
+  </si>
+  <si>
+    <t>8ebe5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 12: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 18: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 24: </t>
+  </si>
+  <si>
+    <t>1901ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄 30: </t>
+  </si>
+  <si>
+    <t>1901bb</t>
+  </si>
+  <si>
+    <t>11B112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11B115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8edfd</t>
   </si>
 </sst>
 </file>
@@ -13130,7 +13491,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -13148,16 +13509,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13686,10 +14037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8364794-61B5-4ABE-8F7A-45BF73285C4B}">
-  <dimension ref="A2:P400"/>
+  <dimension ref="A2:P451"/>
   <sheetViews>
-    <sheetView topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="I372" sqref="I372"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="K451" sqref="K451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20198,7 +20549,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>515</v>
       </c>
@@ -20225,7 +20576,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>518</v>
       </c>
@@ -20255,7 +20606,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>519</v>
       </c>
@@ -20282,7 +20633,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>520</v>
       </c>
@@ -20312,7 +20663,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>521</v>
       </c>
@@ -20339,7 +20690,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>524</v>
       </c>
@@ -20369,7 +20720,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>525</v>
       </c>
@@ -20396,7 +20747,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>526</v>
       </c>
@@ -20423,7 +20774,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>528</v>
       </c>
@@ -20450,7 +20801,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>531</v>
       </c>
@@ -20480,7 +20831,7 @@
         <v>0xaade8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>532</v>
       </c>
@@ -20507,7 +20858,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>535</v>
       </c>
@@ -20534,7 +20885,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>538</v>
       </c>
@@ -20563,8 +20914,12 @@
         <f t="shared" si="15"/>
         <v>0xad3aa</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J237" t="str">
+        <f>"write_hibank_pointer_org "&amp;A237&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H237,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac10b+1 , Dialogue_ad3aa</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>541</v>
       </c>
@@ -20593,8 +20948,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J238" t="str">
+        <f>"write_loword_pointer_org "&amp;A238&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H237,"0x","")</f>
+        <v>write_loword_pointer_org 0xac110+1 , Dialogue_ad3aa</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>544</v>
       </c>
@@ -20623,8 +20982,12 @@
         <f t="shared" si="15"/>
         <v>0xad1b5</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J239" t="str">
+        <f>"write_hibank_pointer_org "&amp;A239&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H239,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac137+1 , Dialogue_ad1b5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>546</v>
       </c>
@@ -20653,8 +21016,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J240" t="str">
+        <f>"write_loword_pointer_org "&amp;A240&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H239,"0x","")</f>
+        <v>write_loword_pointer_org 0xac13c+1 , Dialogue_ad1b5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>549</v>
       </c>
@@ -20683,8 +21050,12 @@
         <f t="shared" si="15"/>
         <v>0xad195</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J241" t="str">
+        <f>"write_hibank_pointer_org "&amp;A241&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H241,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac143+1 , Dialogue_ad195</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>551</v>
       </c>
@@ -20713,8 +21084,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J242" t="str">
+        <f>"write_loword_pointer_org "&amp;A242&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H241,"0x","")</f>
+        <v>write_loword_pointer_org 0xac148+1 , Dialogue_ad195</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>554</v>
       </c>
@@ -20743,8 +21118,12 @@
         <f t="shared" si="15"/>
         <v>0xac2fe</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J243" t="str">
+        <f>"write_hibank_pointer_org "&amp;A243&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H243,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac1f0+1 , Dialogue_ac2fe</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>555</v>
       </c>
@@ -20770,8 +21149,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J244" t="str">
+        <f>"write_loword_pointer_org "&amp;A244&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H243,"0x","")</f>
+        <v>write_loword_pointer_org 0xac1f5+1 , Dialogue_ac2fe</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>558</v>
       </c>
@@ -20800,8 +21183,12 @@
         <f t="shared" si="15"/>
         <v>0xad131</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J245" t="str">
+        <f>"write_hibank_pointer_org "&amp;A245&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H245,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac2e2+1 , Dialogue_ad131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>560</v>
       </c>
@@ -20830,8 +21217,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J246" t="str">
+        <f>"write_loword_pointer_org "&amp;A246&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H245,"0x","")</f>
+        <v>write_loword_pointer_org 0xac2e7+1 , Dialogue_ad131</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>563</v>
       </c>
@@ -20860,8 +21251,12 @@
         <f t="shared" si="15"/>
         <v>0xad257</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J247" t="str">
+        <f>"write_hibank_pointer_org "&amp;A247&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H247,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac2f0+1 , Dialogue_ad257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>565</v>
       </c>
@@ -20890,8 +21285,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J248" t="str">
+        <f>"write_loword_pointer_org "&amp;A248&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H247,"0x","")</f>
+        <v>write_loword_pointer_org 0xac2f5+1 , Dialogue_ad257</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>568</v>
       </c>
@@ -20920,8 +21319,12 @@
         <f t="shared" si="15"/>
         <v>0xac447</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J249" t="str">
+        <f>"write_hibank_pointer_org "&amp;A249&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H249,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac339+1 , Dialogue_ac447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>569</v>
       </c>
@@ -20947,8 +21350,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J250" t="str">
+        <f>"write_loword_pointer_org "&amp;A250&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H249,"0x","")</f>
+        <v>write_loword_pointer_org 0xac33e+1 , Dialogue_ac447</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>572</v>
       </c>
@@ -20977,8 +21384,12 @@
         <f t="shared" si="15"/>
         <v>0xad257</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J251" t="str">
+        <f>"write_hibank_pointer_org "&amp;A251&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H251,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac42b+1 , Dialogue_ad257</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>574</v>
       </c>
@@ -21007,8 +21418,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J252" t="str">
+        <f>"write_loword_pointer_org "&amp;A252&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H251,"0x","")</f>
+        <v>write_loword_pointer_org 0xac430+1 , Dialogue_ad257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>576</v>
       </c>
@@ -21037,8 +21452,12 @@
         <f t="shared" si="15"/>
         <v>0xad233</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J253" t="str">
+        <f>"write_hibank_pointer_org "&amp;A253&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H253,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac439+1 , Dialogue_ad233</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>578</v>
       </c>
@@ -21067,8 +21486,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J254" t="str">
+        <f>"write_loword_pointer_org "&amp;A254&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H253,"0x","")</f>
+        <v>write_loword_pointer_org 0xac43e+1 , Dialogue_ad233</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>581</v>
       </c>
@@ -21097,8 +21520,12 @@
         <f t="shared" si="15"/>
         <v>0xad257</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J255" t="str">
+        <f>"write_hibank_pointer_org "&amp;A255&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H255,"0x","")</f>
+        <v>write_hibank_pointer_org 0xac4ff+1 , Dialogue_ad257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>582</v>
       </c>
@@ -21127,8 +21554,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J256" t="str">
+        <f>"write_loword_pointer_org "&amp;A256&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H255,"0x","")</f>
+        <v>write_loword_pointer_org 0xac504+1 , Dialogue_ad257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>583</v>
       </c>
@@ -21157,8 +21588,12 @@
         <f t="shared" si="15"/>
         <v>0xad53c</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J257" t="str">
+        <f>"write_hibank_pointer_org "&amp;A257&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H257,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae56e+1 , Dialogue_ad53c</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>585</v>
       </c>
@@ -21187,8 +21622,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J258" t="str">
+        <f>"write_loword_pointer_org "&amp;A258&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H257,"0x","")</f>
+        <v>write_loword_pointer_org 0xae573+1 , Dialogue_ad53c</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>588</v>
       </c>
@@ -21217,8 +21656,12 @@
         <f t="shared" si="15"/>
         <v>0xad574</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J259" t="str">
+        <f>"write_hibank_pointer_org "&amp;A259&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H259,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae5b7+1 , Dialogue_ad574</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>590</v>
       </c>
@@ -21247,8 +21690,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J260" t="str">
+        <f>"write_loword_pointer_org "&amp;A260&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H259,"0x","")</f>
+        <v>write_loword_pointer_org 0xae5bc+1 , Dialogue_ad574</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>593</v>
       </c>
@@ -21275,7 +21722,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>596</v>
       </c>
@@ -21304,8 +21751,12 @@
         <f t="shared" si="15"/>
         <v>0xad553</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J262" t="str">
+        <f>"write_hibank_pointer_org "&amp;A262&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H262,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae5f2+1 , Dialogue_ad553</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>598</v>
       </c>
@@ -21334,8 +21785,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J263" t="str">
+        <f>"write_loword_pointer_org "&amp;A263&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H262,"0x","")</f>
+        <v>write_loword_pointer_org 0xae5f7+1 , Dialogue_ad553</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>601</v>
       </c>
@@ -21364,8 +21819,12 @@
         <f t="shared" si="15"/>
         <v>0xad5c5</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J264" t="str">
+        <f>"write_hibank_pointer_org "&amp;A264&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H264,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae617+1 , Dialogue_ad5c5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>603</v>
       </c>
@@ -21394,8 +21853,12 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J265" t="str">
+        <f>"write_loword_pointer_org "&amp;A265&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H264,"0x","")</f>
+        <v>write_loword_pointer_org 0xae61c+1 , Dialogue_ad5c5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>606</v>
       </c>
@@ -21424,8 +21887,12 @@
         <f t="shared" ref="H266:H329" si="19">IF(LEN(G266)&gt;1,"0x"&amp;LOWER(DEC2HEX(_xlfn.BITAND(HEX2DEC(G266),HEX2DEC("3FFFFF")))),"")</f>
         <v>0xad5a5</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J266" t="str">
+        <f>"write_hibank_pointer_org "&amp;A266&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H266,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae647+1 , Dialogue_ad5a5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>608</v>
       </c>
@@ -21454,8 +21921,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J267" t="str">
+        <f>"write_loword_pointer_org "&amp;A267&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H266,"0x","")</f>
+        <v>write_loword_pointer_org 0xae64c+1 , Dialogue_ad5a5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>611</v>
       </c>
@@ -21484,8 +21955,12 @@
         <f t="shared" si="19"/>
         <v>0xae789</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J268" t="str">
+        <f>"write_hibank_pointer_org "&amp;A268&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H268,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae6a0+1 , Dialogue_ae789</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>612</v>
       </c>
@@ -21511,8 +21986,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J269" t="str">
+        <f>"write_loword_pointer_org "&amp;A269&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H268,"0x","")</f>
+        <v>write_loword_pointer_org 0xae6a5+1 , Dialogue_ae789</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>615</v>
       </c>
@@ -21541,8 +22020,12 @@
         <f t="shared" si="19"/>
         <v>0xad4d7</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J270" t="str">
+        <f>"write_hibank_pointer_org "&amp;A270&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H270,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae74e+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>617</v>
       </c>
@@ -21571,8 +22054,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J271" t="str">
+        <f>"write_loword_pointer_org "&amp;A271&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H270,"0x","")</f>
+        <v>write_loword_pointer_org 0xae753+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>620</v>
       </c>
@@ -21601,8 +22088,12 @@
         <f t="shared" si="19"/>
         <v>0xad4e9</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J272" t="str">
+        <f>"write_hibank_pointer_org "&amp;A272&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H272,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae77b+1 , Dialogue_ad4e9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>622</v>
       </c>
@@ -21631,8 +22122,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J273" t="str">
+        <f>"write_loword_pointer_org "&amp;A273&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H272,"0x","")</f>
+        <v>write_loword_pointer_org 0xae780+1 , Dialogue_ad4e9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>625</v>
       </c>
@@ -21661,8 +22156,12 @@
         <f t="shared" si="19"/>
         <v>0xad4bc</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J274" t="str">
+        <f>"write_hibank_pointer_org "&amp;A274&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H274,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae888+1 , Dialogue_ad4bc</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>627</v>
       </c>
@@ -21691,8 +22190,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J275" t="str">
+        <f>"write_loword_pointer_org "&amp;A275&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H274,"0x","")</f>
+        <v>write_loword_pointer_org 0xae88d+1 , Dialogue_ad4bc</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>630</v>
       </c>
@@ -21721,8 +22224,12 @@
         <f t="shared" si="19"/>
         <v>0xad5b7</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J276" t="str">
+        <f>"write_hibank_pointer_org "&amp;A276&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H276,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae8b3+1 , Dialogue_ad5b7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>632</v>
       </c>
@@ -21751,8 +22258,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J277" t="str">
+        <f>"write_loword_pointer_org "&amp;A277&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H276,"0x","")</f>
+        <v>write_loword_pointer_org 0xae8b8+1 , Dialogue_ad5b7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>635</v>
       </c>
@@ -21781,8 +22292,12 @@
         <f t="shared" si="19"/>
         <v>0xad4e9</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J278" t="str">
+        <f>"write_hibank_pointer_org "&amp;A278&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H278,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae8de+1 , Dialogue_ad4e9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>636</v>
       </c>
@@ -21811,8 +22326,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J279" t="str">
+        <f>"write_loword_pointer_org "&amp;A279&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H278,"0x","")</f>
+        <v>write_loword_pointer_org 0xae8e3+1 , Dialogue_ad4e9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>637</v>
       </c>
@@ -21841,8 +22360,12 @@
         <f t="shared" si="19"/>
         <v>0xad4d7</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J280" t="str">
+        <f>"write_hibank_pointer_org "&amp;A280&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H280,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae8ec+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>638</v>
       </c>
@@ -21871,8 +22394,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J281" t="str">
+        <f>"write_loword_pointer_org "&amp;A281&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H280,"0x","")</f>
+        <v>write_loword_pointer_org 0xae8f1+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>639</v>
       </c>
@@ -21901,8 +22428,12 @@
         <f t="shared" si="19"/>
         <v>0xaea3c</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J282" t="str">
+        <f>"write_hibank_pointer_org "&amp;A282&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H282,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae93e+1 , Dialogue_aea3c</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>640</v>
       </c>
@@ -21928,8 +22459,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J283" t="str">
+        <f>"write_loword_pointer_org "&amp;A283&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H282,"0x","")</f>
+        <v>write_loword_pointer_org 0xae943+1 , Dialogue_aea3c</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>643</v>
       </c>
@@ -21958,8 +22493,12 @@
         <f t="shared" si="19"/>
         <v>0xad4e9</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J284" t="str">
+        <f>"write_hibank_pointer_org "&amp;A284&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H284,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae9cd+1 , Dialogue_ad4e9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>644</v>
       </c>
@@ -21988,8 +22527,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J285" t="str">
+        <f>"write_loword_pointer_org "&amp;A285&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H284,"0x","")</f>
+        <v>write_loword_pointer_org 0xae9d2+1 , Dialogue_ad4e9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>645</v>
       </c>
@@ -22018,8 +22561,12 @@
         <f t="shared" si="19"/>
         <v>0xad5b7</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J286" t="str">
+        <f>"write_hibank_pointer_org "&amp;A286&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H286,"0x","")</f>
+        <v>write_hibank_pointer_org 0xae9db+1 , Dialogue_ad5b7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>646</v>
       </c>
@@ -22048,8 +22595,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J287" t="str">
+        <f>"write_loword_pointer_org "&amp;A287&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H286,"0x","")</f>
+        <v>write_loword_pointer_org 0xae9e0+1 , Dialogue_ad5b7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>647</v>
       </c>
@@ -22078,8 +22629,12 @@
         <f t="shared" si="19"/>
         <v>0xad4d7</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J288" t="str">
+        <f>"write_hibank_pointer_org "&amp;A288&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H288,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaea11+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>648</v>
       </c>
@@ -22108,8 +22663,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J289" t="str">
+        <f>"write_loword_pointer_org "&amp;A289&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H288,"0x","")</f>
+        <v>write_loword_pointer_org 0xaea16+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>649</v>
       </c>
@@ -22138,8 +22697,12 @@
         <f t="shared" si="19"/>
         <v>0xaeb56</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J290" t="str">
+        <f>"write_hibank_pointer_org "&amp;A290&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H290,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaea91+1 , Dialogue_aeb56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>650</v>
       </c>
@@ -22165,8 +22728,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J291" t="str">
+        <f>"write_loword_pointer_org "&amp;A291&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H290,"0x","")</f>
+        <v>write_loword_pointer_org 0xaea96+1 , Dialogue_aeb56</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>653</v>
       </c>
@@ -22195,8 +22762,12 @@
         <f t="shared" si="19"/>
         <v>0xad4d7</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J292" t="str">
+        <f>"write_hibank_pointer_org "&amp;A292&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H292,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaeb2b+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>654</v>
       </c>
@@ -22225,8 +22796,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J293" t="str">
+        <f>"write_loword_pointer_org "&amp;A293&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H292,"0x","")</f>
+        <v>write_loword_pointer_org 0xaeb30+1 , Dialogue_ad4d7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>655</v>
       </c>
@@ -22255,8 +22830,12 @@
         <f t="shared" si="19"/>
         <v>0xad4bc</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J294" t="str">
+        <f>"write_hibank_pointer_org "&amp;A294&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H294,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaec34+1 , Dialogue_ad4bc</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>656</v>
       </c>
@@ -22285,8 +22864,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J295" t="str">
+        <f>"write_loword_pointer_org "&amp;A295&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H294,"0x","")</f>
+        <v>write_loword_pointer_org 0xaec39+1 , Dialogue_ad4bc</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>657</v>
       </c>
@@ -22315,8 +22898,12 @@
         <f t="shared" si="19"/>
         <v>0xad60d</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J296" t="str">
+        <f>"write_hibank_pointer_org "&amp;A296&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H296,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaec70+1 , Dialogue_ad60d</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>659</v>
       </c>
@@ -22345,8 +22932,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J297" t="str">
+        <f>"write_loword_pointer_org "&amp;A297&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H296,"0x","")</f>
+        <v>write_loword_pointer_org 0xaec75+1 , Dialogue_ad60d</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>662</v>
       </c>
@@ -22375,8 +22966,12 @@
         <f t="shared" si="19"/>
         <v>0xad7a4</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J298" t="str">
+        <f>"write_hibank_pointer_org "&amp;A298&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H298,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaefb1+1 , Dialogue_ad7a4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>664</v>
       </c>
@@ -22405,8 +23000,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J299" t="str">
+        <f>"write_loword_pointer_org "&amp;A299&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H298,"0x","")</f>
+        <v>write_loword_pointer_org 0xaefb6+1 , Dialogue_ad7a4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>667</v>
       </c>
@@ -22435,8 +23034,12 @@
         <f t="shared" si="19"/>
         <v>0xad756</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J300" t="str">
+        <f>"write_hibank_pointer_org "&amp;A300&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H300,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaefdd+1 , Dialogue_ad756</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>669</v>
       </c>
@@ -22465,8 +23068,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J301" t="str">
+        <f>"write_loword_pointer_org "&amp;A301&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H300,"0x","")</f>
+        <v>write_loword_pointer_org 0xaefe2+1 , Dialogue_ad756</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>672</v>
       </c>
@@ -22495,8 +23102,12 @@
         <f t="shared" si="19"/>
         <v>0xad7d0</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J302" t="str">
+        <f>"write_hibank_pointer_org "&amp;A302&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H302,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaefe9+1 , Dialogue_ad7d0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>674</v>
       </c>
@@ -22525,8 +23136,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J303" t="str">
+        <f>"write_loword_pointer_org "&amp;A303&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H302,"0x","")</f>
+        <v>write_loword_pointer_org 0xaefee+1 , Dialogue_ad7d0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>676</v>
       </c>
@@ -22555,8 +23170,12 @@
         <f t="shared" si="19"/>
         <v>0xad785</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J304" t="str">
+        <f>"write_hibank_pointer_org "&amp;A304&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H304,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaf015+1 , Dialogue_ad785</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>678</v>
       </c>
@@ -22585,8 +23204,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J305" t="str">
+        <f>"write_loword_pointer_org "&amp;A305&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H304,"0x","")</f>
+        <v>write_loword_pointer_org 0xaf01a+1 , Dialogue_ad785</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>681</v>
       </c>
@@ -22615,8 +23238,12 @@
         <f t="shared" si="19"/>
         <v>0xad7fc</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J306" t="str">
+        <f>"write_hibank_pointer_org "&amp;A306&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H306,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaf021+1 , Dialogue_ad7fc</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>683</v>
       </c>
@@ -22645,8 +23272,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J307" t="str">
+        <f>"write_loword_pointer_org "&amp;A307&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H306,"0x","")</f>
+        <v>write_loword_pointer_org 0xaf026+1 , Dialogue_ad7fc</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>686</v>
       </c>
@@ -22675,8 +23306,12 @@
         <f t="shared" si="19"/>
         <v>0xad418</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J308" t="str">
+        <f>"write_hibank_pointer_org "&amp;A308&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H308,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaf459+1 , Dialogue_ad418</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>688</v>
       </c>
@@ -22705,8 +23340,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J309" t="str">
+        <f>"write_loword_pointer_org "&amp;A309&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H308,"0x","")</f>
+        <v>write_loword_pointer_org 0xaf45e+1 , Dialogue_ad418</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>691</v>
       </c>
@@ -22735,8 +23374,12 @@
         <f t="shared" si="19"/>
         <v>0xad46f</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J310" t="str">
+        <f>"write_hibank_pointer_org "&amp;A310&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H310,"0x","")</f>
+        <v>write_hibank_pointer_org 0xaf467+1 , Dialogue_ad46f</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>693</v>
       </c>
@@ -22765,8 +23408,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J311" t="str">
+        <f>"write_loword_pointer_org "&amp;A311&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H310,"0x","")</f>
+        <v>write_loword_pointer_org 0xaf46c+1 , Dialogue_ad46f</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>696</v>
       </c>
@@ -22795,8 +23442,12 @@
         <f t="shared" si="19"/>
         <v>0xad616</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J312" t="str">
+        <f>"write_hibank_pointer_org "&amp;A312&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H312,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafa7f+1 , Dialogue_ad616</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>698</v>
       </c>
@@ -22825,8 +23476,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J313" t="str">
+        <f>"write_loword_pointer_org "&amp;A313&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H312,"0x","")</f>
+        <v>write_loword_pointer_org 0xafa84+1 , Dialogue_ad616</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>701</v>
       </c>
@@ -22855,8 +23510,12 @@
         <f t="shared" si="19"/>
         <v>0xad6da</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J314" t="str">
+        <f>"write_hibank_pointer_org "&amp;A314&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H314,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafb39+1 , Dialogue_ad6da</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>703</v>
       </c>
@@ -22885,8 +23544,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J315" t="str">
+        <f>"write_loword_pointer_org "&amp;A315&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H314,"0x","")</f>
+        <v>write_loword_pointer_org 0xafb3e+1 , Dialogue_ad6da</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>705</v>
       </c>
@@ -22915,8 +23578,12 @@
         <f t="shared" si="19"/>
         <v>0xad6e7</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J316" t="str">
+        <f>"write_hibank_pointer_org "&amp;A316&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H316,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafbbc+1 , Dialogue_ad6e7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>707</v>
       </c>
@@ -22945,8 +23612,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J317" t="str">
+        <f>"write_loword_pointer_org "&amp;A317&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H316,"0x","")</f>
+        <v>write_loword_pointer_org 0xafbc1+1 , Dialogue_ad6e7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>710</v>
       </c>
@@ -22975,8 +23646,12 @@
         <f t="shared" si="19"/>
         <v>0xad70d</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J318" t="str">
+        <f>"write_hibank_pointer_org "&amp;A318&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H318,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafbd6+1 , Dialogue_ad70d</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>712</v>
       </c>
@@ -23005,8 +23680,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J319" t="str">
+        <f>"write_loword_pointer_org "&amp;A319&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H318,"0x","")</f>
+        <v>write_loword_pointer_org 0xafbdb+1 , Dialogue_ad70d</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>715</v>
       </c>
@@ -23035,8 +23714,12 @@
         <f t="shared" si="19"/>
         <v>0xad6be</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J320" t="str">
+        <f>"write_hibank_pointer_org "&amp;A320&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H320,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafbfd+1 , Dialogue_ad6be</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>717</v>
       </c>
@@ -23065,8 +23748,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J321" t="str">
+        <f>"write_loword_pointer_org "&amp;A321&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H320,"0x","")</f>
+        <v>write_loword_pointer_org 0xafc02+1 , Dialogue_ad6be</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>720</v>
       </c>
@@ -23095,8 +23782,12 @@
         <f t="shared" si="19"/>
         <v>0xad65e</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J322" t="str">
+        <f>"write_hibank_pointer_org "&amp;A322&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H322,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafc22+1 , Dialogue_ad65e</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>722</v>
       </c>
@@ -23125,8 +23816,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J323" t="str">
+        <f>"write_loword_pointer_org "&amp;A323&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H322,"0x","")</f>
+        <v>write_loword_pointer_org 0xafc27+1 , Dialogue_ad65e</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>725</v>
       </c>
@@ -23155,8 +23850,12 @@
         <f t="shared" si="19"/>
         <v>0xad678</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J324" t="str">
+        <f>"write_hibank_pointer_org "&amp;A324&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H324,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafc2e+1 , Dialogue_ad678</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>727</v>
       </c>
@@ -23185,8 +23884,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J325" t="str">
+        <f>"write_loword_pointer_org "&amp;A325&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H324,"0x","")</f>
+        <v>write_loword_pointer_org 0xafc33+1 , Dialogue_ad678</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>730</v>
       </c>
@@ -23215,8 +23918,12 @@
         <f t="shared" si="19"/>
         <v>0xad68e</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J326" t="str">
+        <f>"write_hibank_pointer_org "&amp;A326&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H326,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafc3a+1 , Dialogue_ad68e</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>732</v>
       </c>
@@ -23245,8 +23952,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J327" t="str">
+        <f>"write_loword_pointer_org "&amp;A327&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H326,"0x","")</f>
+        <v>write_loword_pointer_org 0xafc3f+1 , Dialogue_ad68e</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>735</v>
       </c>
@@ -23275,8 +23986,12 @@
         <f t="shared" si="19"/>
         <v>0xad6a8</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J328" t="str">
+        <f>"write_hibank_pointer_org "&amp;A328&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H328,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafc46+1 , Dialogue_ad6a8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>737</v>
       </c>
@@ -23305,8 +24020,12 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J329" t="str">
+        <f>"write_loword_pointer_org "&amp;A329&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H328,"0x","")</f>
+        <v>write_loword_pointer_org 0xafc4b+1 , Dialogue_ad6a8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>740</v>
       </c>
@@ -23335,8 +24054,12 @@
         <f t="shared" ref="H330:H393" si="23">IF(LEN(G330)&gt;1,"0x"&amp;LOWER(DEC2HEX(_xlfn.BITAND(HEX2DEC(G330),HEX2DEC("3FFFFF")))),"")</f>
         <v>0xad648</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J330" t="str">
+        <f>"write_hibank_pointer_org "&amp;A330&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H330,"0x","")</f>
+        <v>write_hibank_pointer_org 0xafcdc+1 , Dialogue_ad648</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>742</v>
       </c>
@@ -23365,8 +24088,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J331" t="str">
+        <f>"write_loword_pointer_org "&amp;A331&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H330,"0x","")</f>
+        <v>write_loword_pointer_org 0xafce1+1 , Dialogue_ad648</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>745</v>
       </c>
@@ -23393,7 +24120,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>747</v>
       </c>
@@ -23420,7 +24147,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>749</v>
       </c>
@@ -23447,7 +24174,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>751</v>
       </c>
@@ -23474,7 +24201,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>754</v>
       </c>
@@ -24365,7 +25092,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>822</v>
       </c>
@@ -24392,7 +25119,7 @@
         <v>0x10001</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>824</v>
       </c>
@@ -24419,7 +25146,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>825</v>
       </c>
@@ -24449,7 +25176,7 @@
         <v>0xbd277</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>827</v>
       </c>
@@ -24476,7 +25203,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>830</v>
       </c>
@@ -24506,7 +25233,7 @@
         <v>0xbd4a0</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>831</v>
       </c>
@@ -24533,7 +25260,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>834</v>
       </c>
@@ -24560,7 +25287,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>837</v>
       </c>
@@ -24587,7 +25314,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>840</v>
       </c>
@@ -24614,7 +25341,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>843</v>
       </c>
@@ -24643,8 +25370,15 @@
         <f t="shared" si="23"/>
         <v>0xd9c88</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I378" t="s">
+        <v>4380</v>
+      </c>
+      <c r="J378" t="str">
+        <f>"write_hibank_pointer_org "&amp;A378&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H378,"0x","")</f>
+        <v>write_hibank_pointer_org 0x11aca5+1 , Dialogue_d9c88</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>845</v>
       </c>
@@ -24670,8 +25404,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J379" t="str">
+        <f>"write_loword_pointer_org "&amp;A379&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H378,"0x","")</f>
+        <v>write_loword_pointer_org 0x11acaa+1 , Dialogue_d9c88</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>847</v>
       </c>
@@ -24700,8 +25438,15 @@
         <f t="shared" si="23"/>
         <v>0xd9c8f</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I380" t="s">
+        <v>4380</v>
+      </c>
+      <c r="J380" t="str">
+        <f>"write_hibank_pointer_org "&amp;A380&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H380,"0x","")</f>
+        <v>write_hibank_pointer_org 0x11acb1+1 , Dialogue_d9c8f</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>848</v>
       </c>
@@ -24727,8 +25472,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J381" t="str">
+        <f>"write_loword_pointer_org "&amp;A381&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H380,"0x","")</f>
+        <v>write_loword_pointer_org 0x11acb6+1 , Dialogue_d9c8f</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>851</v>
       </c>
@@ -24757,8 +25506,15 @@
         <f t="shared" si="23"/>
         <v>0xd9c96</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I382" t="s">
+        <v>4380</v>
+      </c>
+      <c r="J382" t="str">
+        <f>"write_hibank_pointer_org "&amp;A382&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H382,"0x","")</f>
+        <v>write_hibank_pointer_org 0x11acbd+1 , Dialogue_d9c96</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>852</v>
       </c>
@@ -24784,8 +25540,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J383" t="str">
+        <f>"write_loword_pointer_org "&amp;A383&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H382,"0x","")</f>
+        <v>write_loword_pointer_org 0x11acc2+1 , Dialogue_d9c96</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>855</v>
       </c>
@@ -24814,8 +25574,15 @@
         <f t="shared" si="23"/>
         <v>0xd9ca5</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I384" t="s">
+        <v>4380</v>
+      </c>
+      <c r="J384" t="str">
+        <f>"write_hibank_pointer_org "&amp;A384&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H384,"0x","")</f>
+        <v>write_hibank_pointer_org 0x11acc9+1 , Dialogue_d9ca5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>856</v>
       </c>
@@ -24841,8 +25608,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J385" t="str">
+        <f>"write_loword_pointer_org "&amp;A385&amp;"+1 , Dialogue_"&amp;SUBSTITUTE(H384,"0x","")</f>
+        <v>write_loword_pointer_org 0x11acce+1 , Dialogue_d9ca5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>859</v>
       </c>
@@ -24872,7 +25643,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>860</v>
       </c>
@@ -24899,7 +25670,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>863</v>
       </c>
@@ -24926,7 +25697,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>865</v>
       </c>
@@ -24953,7 +25724,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>867</v>
       </c>
@@ -24980,7 +25751,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>868</v>
       </c>
@@ -25007,7 +25778,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>869</v>
       </c>
@@ -25034,7 +25805,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>870</v>
       </c>
@@ -25061,7 +25832,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>873</v>
       </c>
@@ -25088,7 +25859,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>876</v>
       </c>
@@ -25115,7 +25886,7 @@
         <v>0x3e8b88</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>879</v>
       </c>
@@ -25142,7 +25913,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>881</v>
       </c>
@@ -25169,7 +25940,7 @@
         <v>0x3e8b88</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>882</v>
       </c>
@@ -25196,7 +25967,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>884</v>
       </c>
@@ -25223,7 +25994,7 @@
         <v>0x3e8b88</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>885</v>
       </c>
@@ -25244,6 +26015,1396 @@
       <c r="G400" t="str">
         <f t="shared" si="26"/>
         <v/>
+      </c>
+    </row>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C402" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D402" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E402">
+        <v>582459</v>
+      </c>
+      <c r="F402" t="str">
+        <f>DEC2HEX(HEX2DEC(D402)-HEX2DEC(200))</f>
+        <v>8E9E5</v>
+      </c>
+      <c r="G402" t="str">
+        <f>DEC2HEX(E402-HEX2DEC(200))</f>
+        <v>8E13B</v>
+      </c>
+      <c r="J402" t="str">
+        <f>"write_hibank_pointer_org 0x"&amp;G402&amp;"+1 , Dialogue_"&amp;LOWER(F402)</f>
+        <v>write_hibank_pointer_org 0x8E13B+1 , Dialogue_8e9e5</v>
+      </c>
+      <c r="K402" t="str">
+        <f>"write_loword_pointer_org 0x"&amp;G402&amp;"+6 , Dialogue_"&amp;LOWER(F402)</f>
+        <v>write_loword_pointer_org 0x8E13B+6 , Dialogue_8e9e5</v>
+      </c>
+    </row>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
+        <v>4381</v>
+      </c>
+      <c r="C403" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E403">
+        <v>583977</v>
+      </c>
+      <c r="F403" t="str">
+        <f>DEC2HEX(HEX2DEC(D403)-HEX2DEC(200))</f>
+        <v>8EC34</v>
+      </c>
+      <c r="G403" t="str">
+        <f>DEC2HEX(E403-HEX2DEC(200))</f>
+        <v>8E729</v>
+      </c>
+      <c r="J403" t="str">
+        <f>"write_hibank_pointer_org 0x"&amp;G403&amp;"+1 , Dialogue_"&amp;LOWER(F403)</f>
+        <v>write_hibank_pointer_org 0x8E729+1 , Dialogue_8ec34</v>
+      </c>
+      <c r="K403" t="str">
+        <f>"write_loword_pointer_org 0x"&amp;G403&amp;"+6 , Dialogue_"&amp;LOWER(F403)</f>
+        <v>write_loword_pointer_org 0x8E729+6 , Dialogue_8ec34</v>
+      </c>
+    </row>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C404" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E404">
+        <v>584015</v>
+      </c>
+      <c r="F404" t="str">
+        <f t="shared" ref="F404:F441" si="28">DEC2HEX(HEX2DEC(D404)-HEX2DEC(200))</f>
+        <v>8EC51</v>
+      </c>
+      <c r="G404" t="str">
+        <f t="shared" ref="G404:G441" si="29">DEC2HEX(E404-HEX2DEC(200))</f>
+        <v>8E74F</v>
+      </c>
+      <c r="J404" t="str">
+        <f t="shared" ref="J404:J441" si="30">"write_hibank_pointer_org 0x"&amp;G404&amp;"+1 , Dialogue_"&amp;LOWER(F404)</f>
+        <v>write_hibank_pointer_org 0x8E74F+1 , Dialogue_8ec51</v>
+      </c>
+      <c r="K404" t="str">
+        <f t="shared" ref="K404:K441" si="31">"write_loword_pointer_org 0x"&amp;G404&amp;"+6 , Dialogue_"&amp;LOWER(F404)</f>
+        <v>write_loword_pointer_org 0x8E74F+6 , Dialogue_8ec51</v>
+      </c>
+    </row>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C405" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D405" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E405">
+        <v>584053</v>
+      </c>
+      <c r="F405" t="str">
+        <f t="shared" si="28"/>
+        <v>8EC6C</v>
+      </c>
+      <c r="G405" t="str">
+        <f t="shared" si="29"/>
+        <v>8E775</v>
+      </c>
+      <c r="J405" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E775+1 , Dialogue_8ec6c</v>
+      </c>
+      <c r="K405" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E775+6 , Dialogue_8ec6c</v>
+      </c>
+    </row>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C406" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E406">
+        <v>584091</v>
+      </c>
+      <c r="F406" t="str">
+        <f t="shared" si="28"/>
+        <v>8EC8A</v>
+      </c>
+      <c r="G406" t="str">
+        <f t="shared" si="29"/>
+        <v>8E79B</v>
+      </c>
+      <c r="J406" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E79B+1 , Dialogue_8ec8a</v>
+      </c>
+      <c r="K406" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E79B+6 , Dialogue_8ec8a</v>
+      </c>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C407" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E407">
+        <v>584129</v>
+      </c>
+      <c r="F407" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECA4</v>
+      </c>
+      <c r="G407" t="str">
+        <f t="shared" si="29"/>
+        <v>8E7C1</v>
+      </c>
+      <c r="J407" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E7C1+1 , Dialogue_8eca4</v>
+      </c>
+      <c r="K407" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E7C1+6 , Dialogue_8eca4</v>
+      </c>
+    </row>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C408" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D408" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E408">
+        <v>584167</v>
+      </c>
+      <c r="F408" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECC0</v>
+      </c>
+      <c r="G408" t="str">
+        <f t="shared" si="29"/>
+        <v>8E7E7</v>
+      </c>
+      <c r="J408" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E7E7+1 , Dialogue_8ecc0</v>
+      </c>
+      <c r="K408" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E7E7+6 , Dialogue_8ecc0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C409" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E409">
+        <v>584205</v>
+      </c>
+      <c r="F409" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECDA</v>
+      </c>
+      <c r="G409" t="str">
+        <f t="shared" si="29"/>
+        <v>8E80D</v>
+      </c>
+      <c r="J409" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E80D+1 , Dialogue_8ecda</v>
+      </c>
+      <c r="K409" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E80D+6 , Dialogue_8ecda</v>
+      </c>
+    </row>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C410" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E410">
+        <v>584243</v>
+      </c>
+      <c r="F410" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECF7</v>
+      </c>
+      <c r="G410" t="str">
+        <f t="shared" si="29"/>
+        <v>8E833</v>
+      </c>
+      <c r="J410" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E833+1 , Dialogue_8ecf7</v>
+      </c>
+      <c r="K410" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E833+6 , Dialogue_8ecf7</v>
+      </c>
+    </row>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C411" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D411" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E411">
+        <v>584281</v>
+      </c>
+      <c r="F411" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED16</v>
+      </c>
+      <c r="G411" t="str">
+        <f t="shared" si="29"/>
+        <v>8E859</v>
+      </c>
+      <c r="J411" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E859+1 , Dialogue_8ed16</v>
+      </c>
+      <c r="K411" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E859+6 , Dialogue_8ed16</v>
+      </c>
+    </row>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C412" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D412" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E412">
+        <v>584319</v>
+      </c>
+      <c r="F412" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED32</v>
+      </c>
+      <c r="G412" t="str">
+        <f t="shared" si="29"/>
+        <v>8E87F</v>
+      </c>
+      <c r="J412" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E87F+1 , Dialogue_8ed32</v>
+      </c>
+      <c r="K412" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E87F+6 , Dialogue_8ed32</v>
+      </c>
+    </row>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C413" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D413" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E413">
+        <v>584357</v>
+      </c>
+      <c r="F413" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED4E</v>
+      </c>
+      <c r="G413" t="str">
+        <f t="shared" si="29"/>
+        <v>8E8A5</v>
+      </c>
+      <c r="J413" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E8A5+1 , Dialogue_8ed4e</v>
+      </c>
+      <c r="K413" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E8A5+6 , Dialogue_8ed4e</v>
+      </c>
+    </row>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C414" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D414" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E414">
+        <v>584395</v>
+      </c>
+      <c r="F414" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED68</v>
+      </c>
+      <c r="G414" t="str">
+        <f t="shared" si="29"/>
+        <v>8E8CB</v>
+      </c>
+      <c r="J414" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E8CB+1 , Dialogue_8ed68</v>
+      </c>
+      <c r="K414" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E8CB+6 , Dialogue_8ed68</v>
+      </c>
+    </row>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C415" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D415" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E415">
+        <v>584433</v>
+      </c>
+      <c r="F415" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED7D</v>
+      </c>
+      <c r="G415" t="str">
+        <f t="shared" si="29"/>
+        <v>8E8F1</v>
+      </c>
+      <c r="J415" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E8F1+1 , Dialogue_8ed7d</v>
+      </c>
+      <c r="K415" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E8F1+6 , Dialogue_8ed7d</v>
+      </c>
+    </row>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C416" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D416" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E416">
+        <v>584471</v>
+      </c>
+      <c r="F416" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED92</v>
+      </c>
+      <c r="G416" t="str">
+        <f t="shared" si="29"/>
+        <v>8E917</v>
+      </c>
+      <c r="J416" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E917+1 , Dialogue_8ed92</v>
+      </c>
+      <c r="K416" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E917+6 , Dialogue_8ed92</v>
+      </c>
+    </row>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C417" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D417" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E417">
+        <v>584509</v>
+      </c>
+      <c r="F417" t="str">
+        <f t="shared" si="28"/>
+        <v>8EDAD</v>
+      </c>
+      <c r="G417" t="str">
+        <f t="shared" si="29"/>
+        <v>8E93D</v>
+      </c>
+      <c r="J417" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E93D+1 , Dialogue_8edad</v>
+      </c>
+      <c r="K417" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E93D+6 , Dialogue_8edad</v>
+      </c>
+    </row>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C418" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D418" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E418">
+        <v>584547</v>
+      </c>
+      <c r="F418" t="str">
+        <f t="shared" si="28"/>
+        <v>8EDCC</v>
+      </c>
+      <c r="G418" t="str">
+        <f t="shared" si="29"/>
+        <v>8E963</v>
+      </c>
+      <c r="J418" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E963+1 , Dialogue_8edcc</v>
+      </c>
+      <c r="K418" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E963+6 , Dialogue_8edcc</v>
+      </c>
+    </row>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C419" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D419" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E419">
+        <v>584585</v>
+      </c>
+      <c r="F419" t="str">
+        <f t="shared" si="28"/>
+        <v>8EDE9</v>
+      </c>
+      <c r="G419" t="str">
+        <f t="shared" si="29"/>
+        <v>8E989</v>
+      </c>
+      <c r="J419" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E989+1 , Dialogue_8ede9</v>
+      </c>
+      <c r="K419" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E989+6 , Dialogue_8ede9</v>
+      </c>
+    </row>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C420" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D420" t="s">
+        <v>4417</v>
+      </c>
+      <c r="E420">
+        <v>584623</v>
+      </c>
+      <c r="F420" t="str">
+        <f t="shared" si="28"/>
+        <v>8EE03</v>
+      </c>
+      <c r="G420" t="str">
+        <f t="shared" si="29"/>
+        <v>8E9AF</v>
+      </c>
+      <c r="J420" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E9AF+1 , Dialogue_8ee03</v>
+      </c>
+      <c r="K420" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E9AF+6 , Dialogue_8ee03</v>
+      </c>
+    </row>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C421" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D421" t="s">
+        <v>4419</v>
+      </c>
+      <c r="E421">
+        <v>584661</v>
+      </c>
+      <c r="F421" t="str">
+        <f t="shared" si="28"/>
+        <v>8EE1F</v>
+      </c>
+      <c r="G421" t="str">
+        <f t="shared" si="29"/>
+        <v>8E9D5</v>
+      </c>
+      <c r="J421" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E9D5+1 , Dialogue_8ee1f</v>
+      </c>
+      <c r="K421" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E9D5+6 , Dialogue_8ee1f</v>
+      </c>
+    </row>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C422" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D422" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E422">
+        <v>583255</v>
+      </c>
+      <c r="F422" t="str">
+        <f t="shared" si="28"/>
+        <v>8EC34</v>
+      </c>
+      <c r="G422" t="str">
+        <f t="shared" si="29"/>
+        <v>8E457</v>
+      </c>
+      <c r="J422" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E457+1 , Dialogue_8ec34</v>
+      </c>
+      <c r="K422" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E457+6 , Dialogue_8ec34</v>
+      </c>
+    </row>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C423" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D423" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E423">
+        <v>583293</v>
+      </c>
+      <c r="F423" t="str">
+        <f t="shared" si="28"/>
+        <v>8EC51</v>
+      </c>
+      <c r="G423" t="str">
+        <f t="shared" si="29"/>
+        <v>8E47D</v>
+      </c>
+      <c r="J423" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E47D+1 , Dialogue_8ec51</v>
+      </c>
+      <c r="K423" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E47D+6 , Dialogue_8ec51</v>
+      </c>
+    </row>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C424" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D424" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E424">
+        <v>583331</v>
+      </c>
+      <c r="F424" t="str">
+        <f t="shared" si="28"/>
+        <v>8EC6C</v>
+      </c>
+      <c r="G424" t="str">
+        <f t="shared" si="29"/>
+        <v>8E4A3</v>
+      </c>
+      <c r="J424" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E4A3+1 , Dialogue_8ec6c</v>
+      </c>
+      <c r="K424" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E4A3+6 , Dialogue_8ec6c</v>
+      </c>
+    </row>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C425" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D425" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E425">
+        <v>583369</v>
+      </c>
+      <c r="F425" t="str">
+        <f t="shared" si="28"/>
+        <v>8EC8A</v>
+      </c>
+      <c r="G425" t="str">
+        <f t="shared" si="29"/>
+        <v>8E4C9</v>
+      </c>
+      <c r="J425" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E4C9+1 , Dialogue_8ec8a</v>
+      </c>
+      <c r="K425" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E4C9+6 , Dialogue_8ec8a</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C426" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D426" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E426">
+        <v>583407</v>
+      </c>
+      <c r="F426" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECA4</v>
+      </c>
+      <c r="G426" t="str">
+        <f t="shared" si="29"/>
+        <v>8E4EF</v>
+      </c>
+      <c r="J426" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E4EF+1 , Dialogue_8eca4</v>
+      </c>
+      <c r="K426" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E4EF+6 , Dialogue_8eca4</v>
+      </c>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C427" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D427" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E427">
+        <v>583445</v>
+      </c>
+      <c r="F427" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECC0</v>
+      </c>
+      <c r="G427" t="str">
+        <f t="shared" si="29"/>
+        <v>8E515</v>
+      </c>
+      <c r="J427" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E515+1 , Dialogue_8ecc0</v>
+      </c>
+      <c r="K427" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E515+6 , Dialogue_8ecc0</v>
+      </c>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C428" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D428" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E428">
+        <v>583483</v>
+      </c>
+      <c r="F428" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECDA</v>
+      </c>
+      <c r="G428" t="str">
+        <f t="shared" si="29"/>
+        <v>8E53B</v>
+      </c>
+      <c r="J428" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E53B+1 , Dialogue_8ecda</v>
+      </c>
+      <c r="K428" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E53B+6 , Dialogue_8ecda</v>
+      </c>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C429" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D429" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E429">
+        <v>583521</v>
+      </c>
+      <c r="F429" t="str">
+        <f t="shared" si="28"/>
+        <v>8ECF7</v>
+      </c>
+      <c r="G429" t="str">
+        <f t="shared" si="29"/>
+        <v>8E561</v>
+      </c>
+      <c r="J429" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E561+1 , Dialogue_8ecf7</v>
+      </c>
+      <c r="K429" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E561+6 , Dialogue_8ecf7</v>
+      </c>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C430" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D430" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E430">
+        <v>583559</v>
+      </c>
+      <c r="F430" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED16</v>
+      </c>
+      <c r="G430" t="str">
+        <f t="shared" si="29"/>
+        <v>8E587</v>
+      </c>
+      <c r="J430" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E587+1 , Dialogue_8ed16</v>
+      </c>
+      <c r="K430" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E587+6 , Dialogue_8ed16</v>
+      </c>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C431" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D431" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E431">
+        <v>583597</v>
+      </c>
+      <c r="F431" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED32</v>
+      </c>
+      <c r="G431" t="str">
+        <f t="shared" si="29"/>
+        <v>8E5AD</v>
+      </c>
+      <c r="J431" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E5AD+1 , Dialogue_8ed32</v>
+      </c>
+      <c r="K431" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E5AD+6 , Dialogue_8ed32</v>
+      </c>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C432" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D432" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E432">
+        <v>583635</v>
+      </c>
+      <c r="F432" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED4E</v>
+      </c>
+      <c r="G432" t="str">
+        <f t="shared" si="29"/>
+        <v>8E5D3</v>
+      </c>
+      <c r="J432" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E5D3+1 , Dialogue_8ed4e</v>
+      </c>
+      <c r="K432" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E5D3+6 , Dialogue_8ed4e</v>
+      </c>
+    </row>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C433" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D433" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E433">
+        <v>583673</v>
+      </c>
+      <c r="F433" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED68</v>
+      </c>
+      <c r="G433" t="str">
+        <f t="shared" si="29"/>
+        <v>8E5F9</v>
+      </c>
+      <c r="J433" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E5F9+1 , Dialogue_8ed68</v>
+      </c>
+      <c r="K433" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E5F9+6 , Dialogue_8ed68</v>
+      </c>
+    </row>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C434" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D434" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E434">
+        <v>583711</v>
+      </c>
+      <c r="F434" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED7D</v>
+      </c>
+      <c r="G434" t="str">
+        <f t="shared" si="29"/>
+        <v>8E61F</v>
+      </c>
+      <c r="J434" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E61F+1 , Dialogue_8ed7d</v>
+      </c>
+      <c r="K434" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E61F+6 , Dialogue_8ed7d</v>
+      </c>
+    </row>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C435" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D435" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E435">
+        <v>583749</v>
+      </c>
+      <c r="F435" t="str">
+        <f t="shared" si="28"/>
+        <v>8ED92</v>
+      </c>
+      <c r="G435" t="str">
+        <f t="shared" si="29"/>
+        <v>8E645</v>
+      </c>
+      <c r="J435" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E645+1 , Dialogue_8ed92</v>
+      </c>
+      <c r="K435" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E645+6 , Dialogue_8ed92</v>
+      </c>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C436" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D436" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E436">
+        <v>583787</v>
+      </c>
+      <c r="F436" t="str">
+        <f t="shared" si="28"/>
+        <v>8EDAD</v>
+      </c>
+      <c r="G436" t="str">
+        <f t="shared" si="29"/>
+        <v>8E66B</v>
+      </c>
+      <c r="J436" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E66B+1 , Dialogue_8edad</v>
+      </c>
+      <c r="K436" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E66B+6 , Dialogue_8edad</v>
+      </c>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C437" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D437" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E437">
+        <v>583825</v>
+      </c>
+      <c r="F437" t="str">
+        <f t="shared" si="28"/>
+        <v>8EDCC</v>
+      </c>
+      <c r="G437" t="str">
+        <f t="shared" si="29"/>
+        <v>8E691</v>
+      </c>
+      <c r="J437" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E691+1 , Dialogue_8edcc</v>
+      </c>
+      <c r="K437" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E691+6 , Dialogue_8edcc</v>
+      </c>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C438" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D438" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E438">
+        <v>583863</v>
+      </c>
+      <c r="F438" t="str">
+        <f t="shared" si="28"/>
+        <v>8EDE9</v>
+      </c>
+      <c r="G438" t="str">
+        <f t="shared" si="29"/>
+        <v>8E6B7</v>
+      </c>
+      <c r="J438" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E6B7+1 , Dialogue_8ede9</v>
+      </c>
+      <c r="K438" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E6B7+6 , Dialogue_8ede9</v>
+      </c>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C439" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D439" t="s">
+        <v>4417</v>
+      </c>
+      <c r="E439">
+        <v>583901</v>
+      </c>
+      <c r="F439" t="str">
+        <f t="shared" si="28"/>
+        <v>8EE03</v>
+      </c>
+      <c r="G439" t="str">
+        <f t="shared" si="29"/>
+        <v>8E6DD</v>
+      </c>
+      <c r="J439" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E6DD+1 , Dialogue_8ee03</v>
+      </c>
+      <c r="K439" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E6DD+6 , Dialogue_8ee03</v>
+      </c>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C440" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D440" t="s">
+        <v>4419</v>
+      </c>
+      <c r="E440">
+        <v>583939</v>
+      </c>
+      <c r="F440" t="str">
+        <f t="shared" si="28"/>
+        <v>8EE1F</v>
+      </c>
+      <c r="G440" t="str">
+        <f t="shared" si="29"/>
+        <v>8E703</v>
+      </c>
+      <c r="J440" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E703+1 , Dialogue_8ee1f</v>
+      </c>
+      <c r="K440" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E703+6 , Dialogue_8ee1f</v>
+      </c>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C441" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D441" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E441">
+        <v>582459</v>
+      </c>
+      <c r="F441" t="str">
+        <f t="shared" si="28"/>
+        <v>8E9E5</v>
+      </c>
+      <c r="G441" t="str">
+        <f t="shared" si="29"/>
+        <v>8E13B</v>
+      </c>
+      <c r="J441" t="str">
+        <f t="shared" si="30"/>
+        <v>write_hibank_pointer_org 0x8E13B+1 , Dialogue_8e9e5</v>
+      </c>
+      <c r="K441" t="str">
+        <f t="shared" si="31"/>
+        <v>write_loword_pointer_org 0x8E13B+6 , Dialogue_8e9e5</v>
+      </c>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C443" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D443">
+        <v>190187</v>
+      </c>
+      <c r="E443">
+        <v>1436422</v>
+      </c>
+      <c r="F443" t="str">
+        <f t="shared" ref="F443:F446" si="32">DEC2HEX(HEX2DEC(D443)-HEX2DEC(200))</f>
+        <v>18FF87</v>
+      </c>
+      <c r="G443" t="str">
+        <f t="shared" ref="G443:G446" si="33">DEC2HEX(E443-HEX2DEC(200))</f>
+        <v>15E906</v>
+      </c>
+      <c r="J443" t="str">
+        <f t="shared" ref="J443:J444" si="34">"write_hibank_pointer_org 0x"&amp;G443&amp;"+1 , Dialogue_"&amp;LOWER(F443)</f>
+        <v>write_hibank_pointer_org 0x15E906+1 , Dialogue_18ff87</v>
+      </c>
+      <c r="K443" t="str">
+        <f>"write_loword_pointer_org 0x"&amp;G443&amp;"+8 , Dialogue_"&amp;LOWER(F443)</f>
+        <v>write_loword_pointer_org 0x15E906+8 , Dialogue_18ff87</v>
+      </c>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C444" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D444">
+        <v>190198</v>
+      </c>
+      <c r="E444">
+        <v>1436471</v>
+      </c>
+      <c r="F444" t="str">
+        <f t="shared" si="32"/>
+        <v>18FF98</v>
+      </c>
+      <c r="G444" t="str">
+        <f t="shared" si="33"/>
+        <v>15E937</v>
+      </c>
+      <c r="J444" t="str">
+        <f t="shared" ref="J444:J446" si="35">"write_hibank_pointer_org 0x"&amp;G444&amp;"+1 , Dialogue_"&amp;LOWER(F444)</f>
+        <v>write_hibank_pointer_org 0x15E937+1 , Dialogue_18ff98</v>
+      </c>
+      <c r="K444" t="str">
+        <f t="shared" ref="K444:K446" si="36">"write_loword_pointer_org 0x"&amp;G444&amp;"+8 , Dialogue_"&amp;LOWER(F444)</f>
+        <v>write_loword_pointer_org 0x15E937+8 , Dialogue_18ff98</v>
+      </c>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C445" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D445" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E445">
+        <v>1436520</v>
+      </c>
+      <c r="F445" t="str">
+        <f t="shared" si="32"/>
+        <v>18FFAB</v>
+      </c>
+      <c r="G445" t="str">
+        <f t="shared" si="33"/>
+        <v>15E968</v>
+      </c>
+      <c r="J445" t="str">
+        <f t="shared" si="35"/>
+        <v>write_hibank_pointer_org 0x15E968+1 , Dialogue_18ffab</v>
+      </c>
+      <c r="K445" t="str">
+        <f t="shared" si="36"/>
+        <v>write_loword_pointer_org 0x15E968+8 , Dialogue_18ffab</v>
+      </c>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C446" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D446" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E446">
+        <v>1436569</v>
+      </c>
+      <c r="F446" t="str">
+        <f t="shared" si="32"/>
+        <v>18FFBB</v>
+      </c>
+      <c r="G446" t="str">
+        <f t="shared" si="33"/>
+        <v>15E999</v>
+      </c>
+      <c r="J446" t="str">
+        <f t="shared" si="35"/>
+        <v>write_hibank_pointer_org 0x15E999+1 , Dialogue_18ffbb</v>
+      </c>
+      <c r="K446" t="str">
+        <f t="shared" si="36"/>
+        <v>write_loword_pointer_org 0x15E999+8 , Dialogue_18ffbb</v>
+      </c>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F447" t="str">
+        <f t="shared" ref="F447:F449" si="37">DEC2HEX(HEX2DEC(D447)-HEX2DEC(200))</f>
+        <v>FFFFFFFE00</v>
+      </c>
+      <c r="G447" t="str">
+        <f t="shared" ref="F447:G449" si="38">DEC2HEX(E447-HEX2DEC(200))</f>
+        <v>FFFFFFFE00</v>
+      </c>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E448">
+        <v>1159921</v>
+      </c>
+      <c r="F448" t="s">
+        <v>4447</v>
+      </c>
+      <c r="G448" t="str">
+        <f t="shared" si="38"/>
+        <v>11B0F1</v>
+      </c>
+      <c r="J448" t="str">
+        <f t="shared" ref="J448" si="39">"write_hibank_pointer_org 0x"&amp;G448&amp;"+1 , Dialogue_"&amp;LOWER(F448)</f>
+        <v>write_hibank_pointer_org 0x11B0F1+1 , Dialogue_11b112</v>
+      </c>
+      <c r="K448" t="str">
+        <f t="shared" ref="K448" si="40">"write_loword_pointer_org 0x"&amp;G448&amp;"+6 , Dialogue_"&amp;LOWER(F448)</f>
+        <v>write_loword_pointer_org 0x11B0F1+6 , Dialogue_11b112</v>
+      </c>
+    </row>
+    <row r="449" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E449">
+        <v>1159939</v>
+      </c>
+      <c r="F449" t="s">
+        <v>4448</v>
+      </c>
+      <c r="G449" t="str">
+        <f t="shared" si="38"/>
+        <v>11B103</v>
+      </c>
+      <c r="J449" t="str">
+        <f t="shared" ref="J449" si="41">"write_hibank_pointer_org 0x"&amp;G449&amp;"+1 , Dialogue_"&amp;LOWER(F449)</f>
+        <v>write_hibank_pointer_org 0x11B103+1 , Dialogue_11b115</v>
+      </c>
+      <c r="K449" t="str">
+        <f t="shared" ref="K449:K451" si="42">"write_loword_pointer_org 0x"&amp;G449&amp;"+6 , Dialogue_"&amp;LOWER(F449)</f>
+        <v>write_loword_pointer_org 0x11B103+6 , Dialogue_11b115</v>
+      </c>
+    </row>
+    <row r="451" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D451" t="s">
+        <v>4449</v>
+      </c>
+      <c r="E451">
+        <v>583222</v>
+      </c>
+      <c r="F451" t="str">
+        <f t="shared" ref="F451" si="43">DEC2HEX(HEX2DEC(D451)-HEX2DEC(200))</f>
+        <v>8EBFD</v>
+      </c>
+      <c r="G451" t="str">
+        <f t="shared" ref="G451" si="44">DEC2HEX(E451-HEX2DEC(200))</f>
+        <v>8E436</v>
+      </c>
+      <c r="K451" t="str">
+        <f>"write_loword_pointer_org 0x"&amp;G451&amp;"+1 , Dialogue_"&amp;LOWER(F451)</f>
+        <v>write_loword_pointer_org 0x8E436+1 , Dialogue_8ebfd</v>
       </c>
     </row>
   </sheetData>
@@ -25262,8 +27423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF59B0C-3E9E-4061-86BE-453802BC5FDD}">
   <dimension ref="A1:K1748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248:K248"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="M60" sqref="M12:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -64947,7 +67108,7 @@
         <v>33ee21</v>
       </c>
       <c r="K1611">
-        <f t="shared" ref="K1603:K1665" si="52">HEX2DEC(J1611)-HEX2DEC(J1610)</f>
+        <f t="shared" ref="K1611:K1665" si="52">HEX2DEC(J1611)-HEX2DEC(J1610)</f>
         <v>3</v>
       </c>
     </row>
@@ -68097,4 +70258,482 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B116F8E9-042A-4B42-B789-5583C6E4E01B}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B1">
+        <f>HEX2DEC(A1)</f>
+        <v>885864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B2">
+        <f>HEX2DEC(A2)</f>
+        <v>885895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B3">
+        <f>HEX2DEC(A3)</f>
+        <v>885920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4">
+        <f>HEX2DEC(A4)</f>
+        <v>885953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B5">
+        <f>HEX2DEC(A5)</f>
+        <v>885996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B6">
+        <f>HEX2DEC(A6)</f>
+        <v>886024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B7">
+        <f>HEX2DEC(A7)</f>
+        <v>886052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B8">
+        <f>HEX2DEC(A8)</f>
+        <v>886078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B9">
+        <f>HEX2DEC(A9)</f>
+        <v>886102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B10">
+        <f>HEX2DEC(A10)</f>
+        <v>886133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B11">
+        <f>HEX2DEC(A11)</f>
+        <v>886167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B12">
+        <f>HEX2DEC(A12)</f>
+        <v>886199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B13">
+        <f>HEX2DEC(A13)</f>
+        <v>886225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B14">
+        <f>HEX2DEC(A14)</f>
+        <v>886260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B15">
+        <f>HEX2DEC(A15)</f>
+        <v>886285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B16">
+        <f>HEX2DEC(A16)</f>
+        <v>1040383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B17">
+        <f>HEX2DEC(A17)</f>
+        <v>1506671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B18">
+        <f>HEX2DEC(A18)</f>
+        <v>1506692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B19">
+        <f>HEX2DEC(A19)</f>
+        <v>1506720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B20">
+        <f>HEX2DEC(A20)</f>
+        <v>1506764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B21">
+        <f>HEX2DEC(A21)</f>
+        <v>1506786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B22">
+        <f>HEX2DEC(A22)</f>
+        <v>1506818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B23">
+        <f>HEX2DEC(A23)</f>
+        <v>1506869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B24">
+        <f>HEX2DEC(A24)</f>
+        <v>1506920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B25">
+        <f>HEX2DEC(A25)</f>
+        <v>1506972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B26">
+        <f>HEX2DEC(A26)</f>
+        <v>1507009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B27">
+        <f>HEX2DEC(A27)</f>
+        <v>1507060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B28">
+        <f>HEX2DEC(A28)</f>
+        <v>1507113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B29">
+        <f>HEX2DEC(A29)</f>
+        <v>1507134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B30">
+        <f>HEX2DEC(A30)</f>
+        <v>1507165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B31">
+        <f>HEX2DEC(A31)</f>
+        <v>1507194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B32">
+        <f>HEX2DEC(A32)</f>
+        <v>1507238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B33">
+        <f>HEX2DEC(A33)</f>
+        <v>1507296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B34">
+        <f>HEX2DEC(A34)</f>
+        <v>1638345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B35">
+        <f>HEX2DEC(A35)</f>
+        <v>1638382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B36">
+        <f>HEX2DEC(A36)</f>
+        <v>1952516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B37">
+        <f>HEX2DEC(A37)</f>
+        <v>1952527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B38">
+        <f>HEX2DEC(A38)</f>
+        <v>1952543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B39">
+        <f>HEX2DEC(A39)</f>
+        <v>1952569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B40">
+        <f>HEX2DEC(A40)</f>
+        <v>3270895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B41">
+        <f>HEX2DEC(A41)</f>
+        <v>3270901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B42">
+        <f>HEX2DEC(A42)</f>
+        <v>3340941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B43">
+        <f>HEX2DEC(A43)</f>
+        <v>3341062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B44">
+        <f>HEX2DEC(A44)</f>
+        <v>3341178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B45">
+        <f>HEX2DEC(A45)</f>
+        <v>3341299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B46">
+        <f>HEX2DEC(A46)</f>
+        <v>3341417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B47">
+        <f>HEX2DEC(A47)</f>
+        <v>3341536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B48">
+        <f>HEX2DEC(A48)</f>
+        <v>3341701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B49">
+        <f>HEX2DEC(A49)</f>
+        <v>3341906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B50">
+        <f>HEX2DEC(A50)</f>
+        <v>3341906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B51">
+        <f>HEX2DEC(A51)</f>
+        <v>3341906</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B51">
+    <sortCondition ref="B1:B51"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>